--- a/data/excel_inputs/input1.xlsx
+++ b/data/excel_inputs/input1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mauri\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DCES\Coding\LoLApiVersion1\data\excel_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{004BF68E-86DA-49AE-9565-850511709BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F89EB38-D51E-4F1F-AAD8-CBA0947638F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{452048D8-C31F-4CAC-8D67-32DE492E0EED}"/>
+    <workbookView xWindow="6090" yWindow="3165" windowWidth="28785" windowHeight="15420" xr2:uid="{452048D8-C31F-4CAC-8D67-32DE492E0EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,39 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>RR</t>
   </si>
   <si>
-    <t>TeamA</t>
-  </si>
-  <si>
-    <t>TeamB</t>
-  </si>
-  <si>
-    <t>TeamC</t>
-  </si>
-  <si>
-    <t>TeamD</t>
-  </si>
-  <si>
-    <t>TeamE</t>
-  </si>
-  <si>
-    <t>TeamF</t>
-  </si>
-  <si>
-    <t>TeamG</t>
-  </si>
-  <si>
-    <t>TeamH</t>
-  </si>
-  <si>
-    <t>TeamI</t>
-  </si>
-  <si>
-    <t>TeamJ</t>
+    <t>Fnatic</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>TSM</t>
+  </si>
+  <si>
+    <t>Duivelsei</t>
+  </si>
+  <si>
+    <t>Zephyr</t>
+  </si>
+  <si>
+    <t>Dorans</t>
+  </si>
+  <si>
+    <t>DSEA</t>
+  </si>
+  <si>
+    <t>Blueshell</t>
   </si>
 </sst>
 </file>
@@ -409,18 +403,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707A68B3-49BA-405C-8177-081C8596AE11}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -434,90 +428,150 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>7093318717</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>7093269000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>7092917248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>7092847241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="F1">
-        <v>7058760447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F5">
+        <v>7092796138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>7092754636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>7092696787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2">
-        <v>7058690321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>7058690321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>7060472126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>7058858545</v>
+      <c r="F8">
+        <v>7092618944</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_inputs/input1.xlsx
+++ b/data/excel_inputs/input1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubCode\DCES Folder\LoLApiVersion1\data\excel_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45734CCA-5C44-4F96-BE91-0B75404F0CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DEEA5F-1F14-4460-8A9C-97E523906335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{452048D8-C31F-4CAC-8D67-32DE492E0EED}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -407,10 +407,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -427,10 +427,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -447,10 +447,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -467,10 +467,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -487,10 +487,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>1</v>

--- a/data/excel_inputs/input1.xlsx
+++ b/data/excel_inputs/input1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubCode\DCES Folder\LoLApiVersion1\data\excel_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DEEA5F-1F14-4460-8A9C-97E523906335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F590F25-6031-4694-8211-230B95AF29F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{452048D8-C31F-4CAC-8D67-32DE492E0EED}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -456,10 +456,10 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
       </c>
       <c r="F3">
         <v>7099400200</v>
@@ -487,10 +487,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -507,10 +507,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>

--- a/data/excel_inputs/input1.xlsx
+++ b/data/excel_inputs/input1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubCode\DCES Folder\LoLApiVersion1\data\excel_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F590F25-6031-4694-8211-230B95AF29F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ECED04-A173-4DBD-A416-10EA6064F4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{452048D8-C31F-4CAC-8D67-32DE492E0EED}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -456,10 +456,10 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>7099400200</v>
@@ -487,10 +487,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -507,10 +507,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>

--- a/data/excel_inputs/input1.xlsx
+++ b/data/excel_inputs/input1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubCode\DCES Folder\LoLApiVersion1\data\excel_inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DCES\Coding\LoLApiVersion1\data\excel_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ECED04-A173-4DBD-A416-10EA6064F4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300C365A-F535-4D78-BEE2-514A37A13D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{452048D8-C31F-4CAC-8D67-32DE492E0EED}"/>
+    <workbookView xWindow="-24975" yWindow="3135" windowWidth="28785" windowHeight="15420" xr2:uid="{452048D8-C31F-4CAC-8D67-32DE492E0EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
   <si>
     <t>Fnatic</t>
   </si>
@@ -43,19 +43,43 @@
   </si>
   <si>
     <t>RoundRobin</t>
+  </si>
+  <si>
+    <t>HLE</t>
+  </si>
+  <si>
+    <t>GEN</t>
+  </si>
+  <si>
+    <t>RankedGame</t>
+  </si>
+  <si>
+    <t>GroupStage</t>
+  </si>
+  <si>
+    <t>Erasmus Esports</t>
+  </si>
+  <si>
+    <t>Zephyr Khaos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,18 +419,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707A68B3-49BA-405C-8177-081C8596AE11}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>3</v>
       </c>
@@ -425,7 +451,7 @@
         <v>7099192510</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -445,7 +471,7 @@
         <v>7099312567</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -465,7 +491,7 @@
         <v>7099400200</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -485,7 +511,7 @@
         <v>7099486450</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -505,7 +531,7 @@
         <v>7099565841</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -525,7 +551,7 @@
         <v>7099312687</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -545,7 +571,7 @@
         <v>7099230230</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -563,6 +589,67 @@
       </c>
       <c r="F8">
         <v>7099152887</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>7127939493</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7144091231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7144187981</v>
       </c>
     </row>
   </sheetData>
